--- a/src/test/resources/data/out/bonjour.xlsx
+++ b/src/test/resources/data/out/bonjour.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
   <si>
     <t>Résultat</t>
   </si>
@@ -84,7 +84,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="66" x14ac:knownFonts="1">
+  <fonts count="64" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,16 +110,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -454,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -528,8 +518,6 @@
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -887,7 +875,7 @@
       <c r="E2" s="12">
         <v>43846</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="63" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="3"/>
@@ -906,7 +894,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="65" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="3"/>
@@ -925,7 +913,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="10"/>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="67" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="4"/>
@@ -944,7 +932,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="10"/>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="69" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="3"/>
@@ -963,7 +951,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="73" t="s">
+      <c r="F6" s="71" t="s">
         <v>19</v>
       </c>
     </row>

--- a/src/test/resources/data/out/bonjour.xlsx
+++ b/src/test/resources/data/out/bonjour.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Résultat</t>
   </si>
@@ -64,27 +64,23 @@
     <t>element</t>
   </si>
   <si>
-    <t>-smile</t>
-  </si>
-  <si>
     <t>Jenkins T5</t>
   </si>
   <si>
-    <t>-noExistElement</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
-    <t>Succès</t>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>noExistElement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="64" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,311 +104,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="17"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,6 +123,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,80 +151,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -827,16 +474,16 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -853,7 +500,7 @@
         <v>14</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
@@ -870,90 +517,80 @@
         <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="10">
+        <v>43846</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="12">
-        <v>43846</v>
-      </c>
-      <c r="F2" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="71" t="s">
-        <v>19</v>
-      </c>
+      <c r="D6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>

--- a/src/test/resources/data/out/bonjour.xlsx
+++ b/src/test/resources/data/out/bonjour.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
   <si>
     <t>Résultat</t>
   </si>
@@ -74,13 +74,20 @@
   </si>
   <si>
     <t>noExistElement</t>
+  </si>
+  <si>
+    <t>Succès</t>
+  </si>
+  <si>
+    <t>Échec : Ouverture DEMO.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +118,66 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
   </fonts>
   <fills count="5">
@@ -151,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -165,6 +232,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,11 +558,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -522,7 +601,9 @@
       <c r="E2" s="10">
         <v>43846</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="23" t="s">
+        <v>20</v>
+      </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -539,7 +620,9 @@
         <v>17</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="12"/>
+      <c r="F3" s="23" t="s">
+        <v>20</v>
+      </c>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -556,7 +639,9 @@
         <v>17</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="12"/>
+      <c r="F4" s="23" t="s">
+        <v>20</v>
+      </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -573,7 +658,9 @@
         <v>17</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="11"/>
+      <c r="F5" s="23" t="s">
+        <v>20</v>
+      </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -590,7 +677,9 @@
         <v>18</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="12"/>
+      <c r="F6" s="23" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>

--- a/src/test/resources/data/out/bonjour.xlsx
+++ b/src/test/resources/data/out/bonjour.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Résultat</t>
   </si>
@@ -76,18 +76,14 @@
     <t>noExistElement</t>
   </si>
   <si>
-    <t>Succès</t>
-  </si>
-  <si>
-    <t>Échec : Ouverture DEMO.</t>
+    <t>title</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,73 +107,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -195,13 +126,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,32 +149,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,22 +469,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F6"/>
+      <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -582,10 +501,13 @@
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -598,53 +520,50 @@
       <c r="D2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>43846</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -658,66 +577,64 @@
         <v>17</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>

--- a/src/test/resources/data/out/bonjour.xlsx
+++ b/src/test/resources/data/out/bonjour.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Résultat</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>title</t>
+  </si>
+  <si>
+    <t>Jenkins T6</t>
+  </si>
+  <si>
+    <t>Jenkins T7</t>
   </si>
 </sst>
 </file>
@@ -469,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G6"/>
+      <selection activeCell="A8" sqref="A8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +548,9 @@
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
+      <c r="G3" s="12">
+        <v>24</v>
+      </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -560,7 +568,9 @@
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
+      <c r="G4" s="12">
+        <v>18</v>
+      </c>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -596,15 +606,43 @@
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
+      <c r="G6" s="12">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -648,7 +686,6 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -730,9 +767,6 @@
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/data/out/bonjour.xlsx
+++ b/src/test/resources/data/out/bonjour.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Résultat</t>
   </si>
@@ -83,13 +83,16 @@
   </si>
   <si>
     <t>Jenkins T7</t>
+  </si>
+  <si>
+    <t>Jenkins T8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,8 +116,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="17"/>
       <name val="Calibri"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -155,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -163,12 +171,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,15 +487,15 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="15.5703125" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -523,54 +532,49 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>43846</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="7"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12">
-        <v>24</v>
-      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12">
-        <v>18</v>
-      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -583,70 +587,74 @@
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="11"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12">
-        <v>29</v>
-      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12">
-        <v>2</v>
-      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12">
-        <v>3</v>
-      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>

--- a/src/test/resources/data/out/bonjour.xlsx
+++ b/src/test/resources/data/out/bonjour.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t>Résultat</t>
   </si>
@@ -86,13 +86,38 @@
   </si>
   <si>
     <t>Jenkins T8</t>
+  </si>
+  <si>
+    <t>Succès</t>
+  </si>
+  <si>
+    <t>This is a demo for NORAUI (Non-Regression Automation for User Interfaces).</t>
+  </si>
+  <si>
+    <t>Échec : The city is Paris!!</t>
+  </si>
+  <si>
+    <t>Échec : Saisie « Input Select field » dans demo.</t>
+  </si>
+  <si>
+    <t>Échec : Accès à l'action « no exist element » dans demo.</t>
+  </si>
+  <si>
+    <t>Échec : La donnée « city » fournie ne peut pas être vide.</t>
+  </si>
+  <si>
+    <t>Échec : La donnée « element » fournie ne peut pas être vide, la donnée « element2 » fournie ne peut pas être vide.</t>
+  </si>
+  <si>
+    <t>Échec : Absence « -input_text_field » dans demo.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +148,21 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
   </fonts>
   <fills count="5">
@@ -163,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -178,6 +218,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,11 +535,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -538,7 +581,12 @@
       <c r="E2" s="8">
         <v>43846</v>
       </c>
-      <c r="G2" s="11"/>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -556,7 +604,9 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="12"/>
+      <c r="G3" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -574,7 +624,9 @@
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="12"/>
+      <c r="G4" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -591,8 +643,12 @@
         <v>17</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="11"/>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -610,7 +666,9 @@
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="12"/>
+      <c r="G6" s="15" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -625,7 +683,9 @@
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="12"/>
+      <c r="G7" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -640,7 +700,9 @@
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="12"/>
+      <c r="G8" s="15" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -654,7 +716,12 @@
         <v>17</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="G9" s="12"/>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>

--- a/src/test/resources/data/out/bonjour.xlsx
+++ b/src/test/resources/data/out/bonjour.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="35">
   <si>
     <t>Résultat</t>
   </si>
@@ -110,6 +110,18 @@
   </si>
   <si>
     <t>Échec : Absence « -input_text_field » dans demo.</t>
+  </si>
+  <si>
+    <t>Échec : Impossible de passer à la fenêtre « demo.Popup2DemoPage ».</t>
+  </si>
+  <si>
+    <t>Échec : Fermeture de l'application demo.Popup1DemoPage.</t>
+  </si>
+  <si>
+    <t>Échec : Ouverture DEMO.</t>
+  </si>
+  <si>
+    <t>Échec : Impossible de passer à la fenêtre « demo.Popup1DemoPage ».</t>
   </si>
 </sst>
 </file>
@@ -117,7 +129,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +160,261 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -203,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -221,6 +488,57 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,7 +902,7 @@
       <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="65" t="s">
         <v>23</v>
       </c>
       <c r="H2" s="3"/>
@@ -604,7 +922,7 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="66" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="3"/>
@@ -624,7 +942,7 @@
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="66" t="s">
         <v>26</v>
       </c>
       <c r="H4" s="4"/>
@@ -646,7 +964,7 @@
       <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="65" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="3"/>
@@ -666,7 +984,7 @@
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="66" t="s">
         <v>27</v>
       </c>
     </row>
@@ -683,7 +1001,7 @@
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="66" t="s">
         <v>28</v>
       </c>
     </row>
@@ -700,7 +1018,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="66" t="s">
         <v>29</v>
       </c>
     </row>
@@ -719,7 +1037,7 @@
       <c r="F9" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="66" t="s">
         <v>30</v>
       </c>
     </row>

--- a/src/test/resources/data/out/bonjour.xlsx
+++ b/src/test/resources/data/out/bonjour.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14670" windowHeight="5745"/>
+    <workbookView windowHeight="5745" windowWidth="14670" xWindow="0" yWindow="2445"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" r:id="rId1" sheetId="1"/>
   </sheets>
   <definedNames>
     <definedName name="Motifs">#REF!</definedName>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="42">
   <si>
     <t>Résultat</t>
   </si>
@@ -122,6 +122,27 @@
   </si>
   <si>
     <t>Échec : Impossible de passer à la fenêtre « demo.Popup1DemoPage ».</t>
+  </si>
+  <si>
+    <t>Échec : /!\ Message « OK » non trouvé sur la popup d'alerte. /!\</t>
+  </si>
+  <si>
+    <t>Échec : /!\ Saisie « Input Select field » dans demo. /!\</t>
+  </si>
+  <si>
+    <t>Échec : /!\ La donnée « city » fournie ne peut pas être vide. /!\</t>
+  </si>
+  <si>
+    <t>Échec : /!\ La donnée « element » fournie ne peut pas être vide. /!\, /!\ La donnée « element2 » fournie ne peut pas être vide. /!\.</t>
+  </si>
+  <si>
+    <t>Échec : /!\ Ouverture de la page DEMO. /!\</t>
+  </si>
+  <si>
+    <t>Échec : /!\ Accès à l'action « no exist element » dans demo. /!\</t>
+  </si>
+  <si>
+    <t>Échec : /!\ Absence « -input_text_field » dans demo. /!\</t>
   </si>
 </sst>
 </file>
@@ -129,7 +150,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="104" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +181,231 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -468,83 +714,128 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+  <cellXfs count="113">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="53" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="54" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="68" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="69" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="71" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="78" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="84" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="86" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="88" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="89" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="94" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="95" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FFFF6600"/>
@@ -563,10 +854,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -724,7 +1015,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -733,13 +1024,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -749,7 +1040,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -758,7 +1049,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -767,7 +1058,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -777,12 +1068,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -813,7 +1104,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -832,7 +1123,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -844,8 +1135,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
@@ -902,7 +1193,7 @@
       <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="110" t="s">
         <v>23</v>
       </c>
       <c r="H2" s="3"/>
@@ -922,7 +1213,7 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="66" t="s">
+      <c r="G3" s="111" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="3"/>
@@ -942,8 +1233,8 @@
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="66" t="s">
-        <v>26</v>
+      <c r="G4" s="111" t="s">
+        <v>36</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -964,7 +1255,7 @@
       <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="110" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="3"/>
@@ -984,8 +1275,8 @@
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="66" t="s">
-        <v>27</v>
+      <c r="G6" s="111" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1001,8 +1292,8 @@
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="66" t="s">
-        <v>28</v>
+      <c r="G7" s="111" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1018,8 +1309,8 @@
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="66" t="s">
-        <v>29</v>
+      <c r="G8" s="111" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1037,8 +1328,8 @@
       <c r="F9" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="66" t="s">
-        <v>30</v>
+      <c r="G9" s="111" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1162,7 +1453,7 @@
       <c r="A46" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/data/out/bonjour.xlsx
+++ b/src/test/resources/data/out/bonjour.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2445" windowWidth="14670" windowHeight="5745"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="NoraUi-bonjour" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="Motifs">#REF!</definedName>
@@ -132,19 +132,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor rgb="FF006058"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FF95A5A6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -164,17 +164,17 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -183,6 +183,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF95A5A6"/>
+      <color rgb="FF006058"/>
       <color rgb="FFFF6600"/>
     </mruColors>
   </colors>
@@ -240,7 +242,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,7 +277,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -487,7 +489,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,28 +502,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -535,64 +537,64 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="9">
+      <c r="D2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="6">
         <v>43846</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="3"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12">
-        <v>27</v>
-      </c>
-      <c r="I3" s="3"/>
+      <c r="D3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12">
-        <v>21</v>
-      </c>
-      <c r="I4" s="4"/>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9">
+        <v>22</v>
+      </c>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -604,95 +606,95 @@
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="3"/>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12">
-        <v>35</v>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12">
+      <c r="C7" s="7"/>
+      <c r="D7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12">
-        <v>3</v>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12">
-        <v>51</v>
+      <c r="D9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9">
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">

--- a/src/test/resources/data/out/bonjour.xlsx
+++ b/src/test/resources/data/out/bonjour.xlsx
@@ -489,7 +489,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H3" sqref="H3:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +569,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -592,7 +592,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I4" s="3"/>
     </row>
@@ -636,7 +636,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -694,7 +694,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">

--- a/src/test/resources/data/out/bonjour.xlsx
+++ b/src/test/resources/data/out/bonjour.xlsx
@@ -489,7 +489,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +636,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -694,7 +694,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">

--- a/src/test/resources/data/out/bonjour.xlsx
+++ b/src/test/resources/data/out/bonjour.xlsx
@@ -489,7 +489,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +569,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -592,7 +592,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I4" s="3"/>
     </row>
@@ -636,7 +636,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -694,7 +694,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">

--- a/src/test/resources/data/out/bonjour.xlsx
+++ b/src/test/resources/data/out/bonjour.xlsx
@@ -489,7 +489,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G3" sqref="G3:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,9 +568,7 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="9">
-        <v>30</v>
-      </c>
+      <c r="H3" s="9"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -591,9 +589,7 @@
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="9">
-        <v>24</v>
-      </c>
+      <c r="H4" s="9"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -635,9 +631,7 @@
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="9">
-        <v>41</v>
-      </c>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -655,9 +649,7 @@
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9">
-        <v>2</v>
-      </c>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -673,9 +665,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="9">
-        <v>4</v>
-      </c>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -693,9 +683,7 @@
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="9">
-        <v>57</v>
-      </c>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>

--- a/src/test/resources/data/out/bonjour.xlsx
+++ b/src/test/resources/data/out/bonjour.xlsx
@@ -22,15 +22,6 @@
     <t>Résultat</t>
   </si>
   <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
     <t>Rennes</t>
   </si>
   <si>
@@ -61,9 +52,6 @@
     <t>Jenkins T4</t>
   </si>
   <si>
-    <t>element</t>
-  </si>
-  <si>
     <t>Jenkins T5</t>
   </si>
   <si>
@@ -76,9 +64,6 @@
     <t>noExistElement</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>Jenkins T6</t>
   </si>
   <si>
@@ -88,7 +73,22 @@
     <t>Jenkins T8</t>
   </si>
   <si>
-    <t>element2</t>
+    <t>auteur</t>
+  </si>
+  <si>
+    <t>codepostal</t>
+  </si>
+  <si>
+    <t>ville</t>
+  </si>
+  <si>
+    <t>élément</t>
+  </si>
+  <si>
+    <t>élément2</t>
+  </si>
+  <si>
+    <t>titre</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:H9"/>
+      <selection activeCell="H3" sqref="H3:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,25 +503,25 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>19</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>0</v>
@@ -529,19 +529,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F2" s="6">
         <v>43846</v>
@@ -552,19 +552,19 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -573,19 +573,19 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -594,19 +594,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -615,19 +615,19 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -635,17 +635,17 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -653,13 +653,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -669,17 +669,17 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>

--- a/src/test/resources/data/out/bonjour.xlsx
+++ b/src/test/resources/data/out/bonjour.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14670" windowHeight="5745"/>
+    <workbookView windowHeight="5745" windowWidth="14670" xWindow="0" yWindow="2445"/>
   </bookViews>
   <sheets>
-    <sheet name="NoraUi-bonjour" sheetId="1" r:id="rId1"/>
+    <sheet name="NoraUi-bonjour" r:id="rId1" sheetId="1"/>
   </sheets>
   <definedNames>
     <definedName name="Motifs">#REF!</definedName>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="33">
   <si>
     <t>Résultat</t>
   </si>
@@ -89,13 +89,41 @@
   </si>
   <si>
     <t>titre</t>
+  </si>
+  <si>
+    <t>Succès</t>
+  </si>
+  <si>
+    <t>This is a demo for NORAUI (Non-Regression Automation for User Interfaces).</t>
+  </si>
+  <si>
+    <t>{"total_count":218,"incomplete_results":false,"items":[{"login":"ndeloof","id":132757,"node_id":"MDQ6VXNlcjEzMjc1Nw==","avatar_url":"https://avatars0.githubusercontent.com/u/132757?v=4","gravatar_id":"","url":"https://api.github.com/users/ndeloof","html_url":"https://github.com/ndeloof","followers_url":"https://api.github.com/users/ndeloof/followers","following_url":"https://api.github.com/users/ndeloof/following{/other_user}","gists_url":"https://api.github.com/users/ndeloof/gists{/gist_id}","starred_url":"https://api.github.com/users/ndeloof/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/ndeloof/subscriptions","organizations_url":"https://api.github.com/users/ndeloof/orgs","repos_url":"https://api.github.com/users/ndeloof/repos","events_url":"https://api.github.com/users/ndeloof/events{/privacy}","received_events_url":"https://api.github.com/users/ndeloof/received_events","type":"User","site_admin":false,"score":1.0},{"login":"aurelhubert","id":4895410,"node_id":"MDQ6VXNlcjQ4OTU0MTA=","avatar_url":"https://avatars0.githubusercontent.com/u/4895410?v=4","gravatar_id":"","url":"https://api.github.com/users/aurelhubert","html_url":"https://github.com/aurelhubert","followers_url":"https://api.github.com/users/aurelhubert/followers","following_url":"https://api.github.com/users/aurelhubert/following{/other_user}","gists_url":"https://api.github.com/users/aurelhubert/gists{/gist_id}","starred_url":"https://api.github.com/users/aurelhubert/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/aurelhubert/subscriptions","organizations_url":"https://api.github.com/users/aurelhubert/orgs","repos_url":"https://api.github.com/users/aurelhubert/repos","events_url":"https://api.github.com/users/aurelhubert/events{/privacy}","received_events_url":"https://api.github.com/users/aurelhubert/received_events","type":"User","site_admin":false,"score":1.0},{"login":"pcmanus","id":479957,"node_id":"MDQ6VXNlcjQ3OTk1Nw==","avatar_url":"https://avatars3.githubusercontent.com/u/479957?v=4","gravatar_id":"","url":"https://api.github.com/users/pcmanus","html_url":"https://github.com/pcmanus","followers_url":"https://api.github.com/users/pcmanus/followers","following_url":"https://api.github.com/users/pcmanus/following{/other_user}","gists_url":"https://api.github.com/users/pcmanus/gists{/gist_id}","starred_url":"https://api.github.com/users/pcmanus/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/pcmanus/subscriptions","organizations_url":"https://api.github.com/users/pcmanus/orgs","repos_url":"https://api.github.com/users/pcmanus/repos","events_url":"https://api.github.com/users/pcmanus/events{/privacy}","received_events_url":"https://api.github.com/users/pcmanus/received_events","type":"User","site_admin":false,"score":1.0},{"login":"deruelle","id":54279,"node_id":"MDQ6VXNlcjU0Mjc5","avatar_url":"https://avatars3.githubusercontent.com/u/54279?v=4","gravatar_id":"","url":"https://api.github.com/users/deruelle","html_url":"https://github.com/deruelle","followers_url":"https://api.github.com/users/deruelle/followers","following_url":"https://api.github.com/users/deruelle/following{/other_user}","gists_url":"https://api.github.com/users/deruelle/gists{/gist_id}","starred_url":"https://api.github.com/users/deruelle/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/deruelle/subscriptions","organizations_url":"https://api.github.com/users/deruelle/orgs","repos_url":"https://api.github.com/users/deruelle/repos","events_url":"https://api.github.com/users/deruelle/events{/privacy}","received_events_url":"https://api.github.com/users/deruelle/received_events","type":"User","site_admin":false,"score":1.0},{"login":"barais","id":598311,"node_id":"MDQ6VXNlcjU5ODMxMQ==","avatar_url":"https://avatars1.githubusercontent.com/u/598311?v=4","gravatar_id":"","url":"https://api.github.com/users/barais","html_url":"https://github.com/barais","followers_url":"https://api.github.com/users/barais/followers","following_url":"https://api.github.com/users/barais/following{/other_user}","gists_url":"https://api.github.com/users/barais/gists{/gist_id}","starred_url":"https://api.github.com/users/barais/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/barais/subscriptions","organizations_url":"https://api.github.com/users/barais/orgs","repos_url":"https://api.github.com/users/barais/repos","events_url":"https://api.github.com/users/barais/events{/privacy}","received_events_url":"https://api.github.com/users/barais/received_events","type":"User","site_admin":false,"score":1.0},{"login":"ybonnel","id":428232,"node_id":"MDQ6VXNlcjQyODIzMg==","avatar_url":"https://avatars1.githubusercontent.com/u/428232?v=4","gravatar_id":"","url":"https://api.github.com/users/ybonnel","html_url":"https://github.com/ybonnel","followers_url":"https://api.github.com/users/ybonnel/followers","following_url":"https://api.github.com/users/ybonnel/following{/other_user}","gists_url":"https://api.github.com/users/ybonnel/gists{/gist_id}","starred_url":"https://api.github.com/users/ybonnel/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/ybonnel/subscriptions","organizations_url":"https://api.github.com/users/ybonnel/orgs","repos_url":"https://api.github.com/users/ybonnel/repos","events_url":"https://api.github.com/users/ybonnel/events{/privacy}","received_events_url":"https://api.github.com/users/ybonnel/received_events","type":"User","site_admin":false,"score":1.0},{"login":"ganfra","id":8754928,"node_id":"MDQ6VXNlcjg3NTQ5Mjg=","avatar_url":"https://avatars3.githubusercontent.com/u/8754928?v=4","gravatar_id":"","url":"https://api.github.com/users/ganfra","html_url":"https://github.com/ganfra","followers_url":"https://api.github.com/users/ganfra/followers","following_url":"https://api.github.com/users/ganfra/following{/other_user}","gists_url":"https://api.github.com/users/ganfra/gists{/gist_id}","starred_url":"https://api.github.com/users/ganfra/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/ganfra/subscriptions","organizations_url":"https://api.github.com/users/ganfra/orgs","repos_url":"https://api.github.com/users/ganfra/repos","events_url":"https://api.github.com/users/ganfra/events{/privacy}","received_events_url":"https://api.github.com/users/ganfra/received_events","type":"User","site_admin":false,"score":1.0},{"login":"Jean-Emile","id":1098811,"node_id":"MDQ6VXNlcjEwOTg4MTE=","avatar_url":"https://avatars3.githubusercontent.com/u/1098811?v=4","gravatar_id":"","url":"https://api.github.com/users/Jean-Emile","html_url":"https://github.com/Jean-Emile","followers_url":"https://api.github.com/users/Jean-Emile/followers","following_url":"https://api.github.com/users/Jean-Emile/following{/other_user}","gists_url":"https://api.github.com/users/Jean-Emile/gists{/gist_id}","starred_url":"https://api.github.com/users/Jean-Emile/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/Jean-Emile/subscriptions","organizations_url":"https://api.github.com/users/Jean-Emile/orgs","repos_url":"https://api.github.com/users/Jean-Emile/repos","events_url":"https://api.github.com/users/Jean-Emile/events{/privacy}","received_events_url":"https://api.github.com/users/Jean-Emile/received_events","type":"User","site_admin":false,"score":1.0},{"login":"arnobl","id":1052622,"node_id":"MDQ6VXNlcjEwNTI2MjI=","avatar_url":"https://avatars0.githubusercontent.com/u/1052622?v=4","gravatar_id":"","url":"https://api.github.com/users/arnobl","html_url":"https://github.com/arnobl","followers_url":"https://api.github.com/users/arnobl/followers","following_url":"https://api.github.com/users/arnobl/following{/other_user}","gists_url":"https://api.github.com/users/arnobl/gists{/gist_id}","starred_url":"https://api.github.com/users/arnobl/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/arnobl/subscriptions","organizations_url":"https://api.github.com/users/arnobl/orgs","repos_url":"https://api.github.com/users/arnobl/repos","events_url":"https://api.github.com/users/arnobl/events{/privacy}","received_events_url":"https://api.github.com/users/arnobl/received_events","type":"User","site_admin":false,"score":1.0},{"login":"acherm","id":530573,"node_id":"MDQ6VXNlcjUzMDU3Mw==","avatar_url":"https://avatars1.githubusercontent.com/u/530573?v=4","gravatar_id":"","url":"https://api.github.com/users/acherm","html_url":"https://github.com/acherm","followers_url":"https://api.github.com/users/acherm/followers","following_url":"https://api.github.com/users/acherm/following{/other_user}","gists_url":"https://api.github.com/users/acherm/gists{/gist_id}","starred_url":"https://api.github.com/users/acherm/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/acherm/subscriptions","organizations_url":"https://api.github.com/users/acherm/orgs","repos_url":"https://api.github.com/users/acherm/repos","events_url":"https://api.github.com/users/acherm/events{/privacy}","received_events_url":"https://api.github.com/users/acherm/received_events","type":"User","site_admin":false,"score":1.0}]}</t>
+  </si>
+  <si>
+    <t>Échec : The city is Paris!!</t>
+  </si>
+  <si>
+    <t>Échec : /!\ Saisie « Input Select field » dans demo. /!\</t>
+  </si>
+  <si>
+    <t>Échec : /!\ Accès à l'action « no exist element » dans demo. /!\</t>
+  </si>
+  <si>
+    <t>Échec : /!\ La donnée « la ville » fournie ne peut pas être vide. /!\</t>
+  </si>
+  <si>
+    <t>Échec : /!\ La donnée « élément » fournie ne peut pas être vide. /!\, /!\ La donnée « élément2 » fournie ne peut pas être vide. /!\.</t>
+  </si>
+  <si>
+    <t>Échec : /!\ Absence « -input_text_field » dans demo. /!\</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +149,66 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
   </fonts>
   <fills count="5">
@@ -159,28 +247,40 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+  <cellXfs count="25">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FF95A5A6"/>
@@ -204,10 +304,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -365,7 +465,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -374,13 +474,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -390,7 +490,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -399,7 +499,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -408,7 +508,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -418,12 +518,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -454,7 +554,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -473,7 +573,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -485,8 +585,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3:H9"/>
@@ -494,11 +594,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="7" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -546,8 +646,12 @@
       <c r="F2" s="6">
         <v>43846</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="4"/>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -568,7 +672,9 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
+      <c r="H3" s="23" t="s">
+        <v>27</v>
+      </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -589,7 +695,9 @@
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
+      <c r="H4" s="23" t="s">
+        <v>28</v>
+      </c>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -609,8 +717,12 @@
         <v>13</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="4"/>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -631,7 +743,9 @@
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="23" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -649,7 +763,9 @@
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="23" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -665,7 +781,9 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
+      <c r="H8" s="23" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -682,8 +800,12 @@
         <v>13</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -806,7 +928,7 @@
       <c r="A46" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/data/out/bonjour.xlsx
+++ b/src/test/resources/data/out/bonjour.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\POC\NoraUi\src\test\resources\data\out\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="NoraUi-bonjour" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="NoraUi-bonjour" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="Motifs" vbProcedure="false">#REF!</definedName>
+    <definedName name="Motifs">#REF!</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,88 +29,86 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
-    <t xml:space="preserve">auteur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">codepostal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">élément</t>
-  </si>
-  <si>
-    <t xml:space="preserve">élément2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">titre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Résultat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jenkins T1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rennes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jenkins T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jenkins T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lorient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jenkins T4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jenkins T5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noExistElement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jenkins T6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jenkins T7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jenkins T8</t>
+    <t>auteur</t>
+  </si>
+  <si>
+    <t>codepostal</t>
+  </si>
+  <si>
+    <t>ville</t>
+  </si>
+  <si>
+    <t>élément</t>
+  </si>
+  <si>
+    <t>élément2</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>titre</t>
+  </si>
+  <si>
+    <t>Résultat</t>
+  </si>
+  <si>
+    <t>Jenkins T1</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>Jenkins T2</t>
+  </si>
+  <si>
+    <t>75000</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Jenkins T3</t>
+  </si>
+  <si>
+    <t>56100</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Jenkins T4</t>
+  </si>
+  <si>
+    <t>Jenkins T5</t>
+  </si>
+  <si>
+    <t>noExistElement</t>
+  </si>
+  <si>
+    <t>Jenkins T6</t>
+  </si>
+  <si>
+    <t>Jenkins T7</t>
+  </si>
+  <si>
+    <t>Jenkins T8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$-40C]DD/MM/YYYY"/>
-    <numFmt numFmtId="166" formatCode="@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-40C]dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -115,22 +117,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -177,7 +164,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -185,85 +172,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -322,31 +251,303 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.28"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="4" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -372,7 +573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -388,14 +589,14 @@
       <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="n">
-        <v>43846</v>
+      <c r="F2" s="5">
+        <v>54804</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
@@ -413,12 +614,12 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="9" t="n">
+      <c r="H3" s="9">
         <v>31</v>
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
@@ -436,12 +637,12 @@
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="9" t="n">
+      <c r="H4" s="9">
         <v>25</v>
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -462,7 +663,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
@@ -480,11 +681,11 @@
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="9" t="n">
+      <c r="H6" s="9">
         <v>42</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
@@ -500,11 +701,11 @@
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9" t="n">
+      <c r="H7" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
@@ -518,11 +719,11 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="9" t="n">
+      <c r="H8" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
@@ -538,137 +739,132 @@
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="9" t="n">
+      <c r="H9" s="9">
         <v>58</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/src/test/resources/data/out/bonjour.xlsx
+++ b/src/test/resources/data/out/bonjour.xlsx
@@ -2,18 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" date1904="false" showObjects="all"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="NoraUi-bonjour" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="NoraUi-bonjour" r:id="rId2" sheetId="1" state="visible"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="Motifs" vbProcedure="false">#REF!</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterate="false" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="34">
   <si>
     <t xml:space="preserve">auteur</t>
   </si>
@@ -95,6 +95,36 @@
   </si>
   <si>
     <t xml:space="preserve">Jenkins T8</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>This is a demo for NORAUI (Non-Regression Automation for User Interfaces).</t>
+  </si>
+  <si>
+    <t>{"total_count":229,"incomplete_results":false,"items":[{"login":"ndeloof","id":132757,"node_id":"MDQ6VXNlcjEzMjc1Nw==","avatar_url":"https://avatars0.githubusercontent.com/u/132757?v=4","gravatar_id":"","url":"https://api.github.com/users/ndeloof","html_url":"https://github.com/ndeloof","followers_url":"https://api.github.com/users/ndeloof/followers","following_url":"https://api.github.com/users/ndeloof/following{/other_user}","gists_url":"https://api.github.com/users/ndeloof/gists{/gist_id}","starred_url":"https://api.github.com/users/ndeloof/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/ndeloof/subscriptions","organizations_url":"https://api.github.com/users/ndeloof/orgs","repos_url":"https://api.github.com/users/ndeloof/repos","events_url":"https://api.github.com/users/ndeloof/events{/privacy}","received_events_url":"https://api.github.com/users/ndeloof/received_events","type":"User","site_admin":false,"score":1.0},{"login":"aurelhubert","id":4895410,"node_id":"MDQ6VXNlcjQ4OTU0MTA=","avatar_url":"https://avatars0.githubusercontent.com/u/4895410?v=4","gravatar_id":"","url":"https://api.github.com/users/aurelhubert","html_url":"https://github.com/aurelhubert","followers_url":"https://api.github.com/users/aurelhubert/followers","following_url":"https://api.github.com/users/aurelhubert/following{/other_user}","gists_url":"https://api.github.com/users/aurelhubert/gists{/gist_id}","starred_url":"https://api.github.com/users/aurelhubert/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/aurelhubert/subscriptions","organizations_url":"https://api.github.com/users/aurelhubert/orgs","repos_url":"https://api.github.com/users/aurelhubert/repos","events_url":"https://api.github.com/users/aurelhubert/events{/privacy}","received_events_url":"https://api.github.com/users/aurelhubert/received_events","type":"User","site_admin":false,"score":1.0},{"login":"pcmanus","id":479957,"node_id":"MDQ6VXNlcjQ3OTk1Nw==","avatar_url":"https://avatars3.githubusercontent.com/u/479957?v=4","gravatar_id":"","url":"https://api.github.com/users/pcmanus","html_url":"https://github.com/pcmanus","followers_url":"https://api.github.com/users/pcmanus/followers","following_url":"https://api.github.com/users/pcmanus/following{/other_user}","gists_url":"https://api.github.com/users/pcmanus/gists{/gist_id}","starred_url":"https://api.github.com/users/pcmanus/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/pcmanus/subscriptions","organizations_url":"https://api.github.com/users/pcmanus/orgs","repos_url":"https://api.github.com/users/pcmanus/repos","events_url":"https://api.github.com/users/pcmanus/events{/privacy}","received_events_url":"https://api.github.com/users/pcmanus/received_events","type":"User","site_admin":false,"score":1.0},{"login":"deruelle","id":54279,"node_id":"MDQ6VXNlcjU0Mjc5","avatar_url":"https://avatars3.githubusercontent.com/u/54279?v=4","gravatar_id":"","url":"https://api.github.com/users/deruelle","html_url":"https://github.com/deruelle","followers_url":"https://api.github.com/users/deruelle/followers","following_url":"https://api.github.com/users/deruelle/following{/other_user}","gists_url":"https://api.github.com/users/deruelle/gists{/gist_id}","starred_url":"https://api.github.com/users/deruelle/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/deruelle/subscriptions","organizations_url":"https://api.github.com/users/deruelle/orgs","repos_url":"https://api.github.com/users/deruelle/repos","events_url":"https://api.github.com/users/deruelle/events{/privacy}","received_events_url":"https://api.github.com/users/deruelle/received_events","type":"User","site_admin":false,"score":1.0},{"login":"barais","id":598311,"node_id":"MDQ6VXNlcjU5ODMxMQ==","avatar_url":"https://avatars1.githubusercontent.com/u/598311?v=4","gravatar_id":"","url":"https://api.github.com/users/barais","html_url":"https://github.com/barais","followers_url":"https://api.github.com/users/barais/followers","following_url":"https://api.github.com/users/barais/following{/other_user}","gists_url":"https://api.github.com/users/barais/gists{/gist_id}","starred_url":"https://api.github.com/users/barais/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/barais/subscriptions","organizations_url":"https://api.github.com/users/barais/orgs","repos_url":"https://api.github.com/users/barais/repos","events_url":"https://api.github.com/users/barais/events{/privacy}","received_events_url":"https://api.github.com/users/barais/received_events","type":"User","site_admin":false,"score":1.0},{"login":"ybonnel","id":428232,"node_id":"MDQ6VXNlcjQyODIzMg==","avatar_url":"https://avatars1.githubusercontent.com/u/428232?v=4","gravatar_id":"","url":"https://api.github.com/users/ybonnel","html_url":"https://github.com/ybonnel","followers_url":"https://api.github.com/users/ybonnel/followers","following_url":"https://api.github.com/users/ybonnel/following{/other_user}","gists_url":"https://api.github.com/users/ybonnel/gists{/gist_id}","starred_url":"https://api.github.com/users/ybonnel/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/ybonnel/subscriptions","organizations_url":"https://api.github.com/users/ybonnel/orgs","repos_url":"https://api.github.com/users/ybonnel/repos","events_url":"https://api.github.com/users/ybonnel/events{/privacy}","received_events_url":"https://api.github.com/users/ybonnel/received_events","type":"User","site_admin":false,"score":1.0},{"login":"ganfra","id":8754928,"node_id":"MDQ6VXNlcjg3NTQ5Mjg=","avatar_url":"https://avatars3.githubusercontent.com/u/8754928?v=4","gravatar_id":"","url":"https://api.github.com/users/ganfra","html_url":"https://github.com/ganfra","followers_url":"https://api.github.com/users/ganfra/followers","following_url":"https://api.github.com/users/ganfra/following{/other_user}","gists_url":"https://api.github.com/users/ganfra/gists{/gist_id}","starred_url":"https://api.github.com/users/ganfra/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/ganfra/subscriptions","organizations_url":"https://api.github.com/users/ganfra/orgs","repos_url":"https://api.github.com/users/ganfra/repos","events_url":"https://api.github.com/users/ganfra/events{/privacy}","received_events_url":"https://api.github.com/users/ganfra/received_events","type":"User","site_admin":false,"score":1.0},{"login":"Jean-Emile","id":1098811,"node_id":"MDQ6VXNlcjEwOTg4MTE=","avatar_url":"https://avatars3.githubusercontent.com/u/1098811?v=4","gravatar_id":"","url":"https://api.github.com/users/Jean-Emile","html_url":"https://github.com/Jean-Emile","followers_url":"https://api.github.com/users/Jean-Emile/followers","following_url":"https://api.github.com/users/Jean-Emile/following{/other_user}","gists_url":"https://api.github.com/users/Jean-Emile/gists{/gist_id}","starred_url":"https://api.github.com/users/Jean-Emile/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/Jean-Emile/subscriptions","organizations_url":"https://api.github.com/users/Jean-Emile/orgs","repos_url":"https://api.github.com/users/Jean-Emile/repos","events_url":"https://api.github.com/users/Jean-Emile/events{/privacy}","received_events_url":"https://api.github.com/users/Jean-Emile/received_events","type":"User","site_admin":false,"score":1.0},{"login":"arnobl","id":1052622,"node_id":"MDQ6VXNlcjEwNTI2MjI=","avatar_url":"https://avatars0.githubusercontent.com/u/1052622?v=4","gravatar_id":"","url":"https://api.github.com/users/arnobl","html_url":"https://github.com/arnobl","followers_url":"https://api.github.com/users/arnobl/followers","following_url":"https://api.github.com/users/arnobl/following{/other_user}","gists_url":"https://api.github.com/users/arnobl/gists{/gist_id}","starred_url":"https://api.github.com/users/arnobl/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/arnobl/subscriptions","organizations_url":"https://api.github.com/users/arnobl/orgs","repos_url":"https://api.github.com/users/arnobl/repos","events_url":"https://api.github.com/users/arnobl/events{/privacy}","received_events_url":"https://api.github.com/users/arnobl/received_events","type":"User","site_admin":false,"score":1.0},{"login":"acherm","id":530573,"node_id":"MDQ6VXNlcjUzMDU3Mw==","avatar_url":"https://avatars1.githubusercontent.com/u/530573?v=4","gravatar_id":"","url":"https://api.github.com/users/acherm","html_url":"https://github.com/acherm","followers_url":"https://api.github.com/users/acherm/followers","following_url":"https://api.github.com/users/acherm/following{/other_user}","gists_url":"https://api.github.com/users/acherm/gists{/gist_id}","starred_url":"https://api.github.com/users/acherm/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/acherm/subscriptions","organizations_url":"https://api.github.com/users/acherm/orgs","repos_url":"https://api.github.com/users/acherm/repos","events_url":"https://api.github.com/users/acherm/events{/privacy}","received_events_url":"https://api.github.com/users/acherm/received_events","type":"User","site_admin":false,"score":1.0}]}</t>
+  </si>
+  <si>
+    <t>Fail: The city is Paris!!</t>
+  </si>
+  <si>
+    <t>Fail: /!\ Typing Â« Input Select field Â» in bakery. /!\</t>
+  </si>
+  <si>
+    <t>Fail: /!\ Click on Â« no exist element Â» in bakery. /!\</t>
+  </si>
+  <si>
+    <t>Fail: /!\ The provided data Â« la ville Â» cannot be empty. /!\</t>
+  </si>
+  <si>
+    <t>Fail: /!\ The provided data Â« élément Â» cannot be empty. /!\, /!\ The provided data Â« élément2 Â» cannot be empty. /!\.</t>
+  </si>
+  <si>
+    <t>Fail: /!\ Unable to authenticate with provided credentials. /!\</t>
+  </si>
+  <si>
+    <t>Fail: /!\ No value for Â« Input Text field Â» in bakery. /!\</t>
   </si>
 </sst>
 </file>
@@ -103,10 +133,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$-40C]DD/MM/YYYY"/>
+    <numFmt numFmtId="165" formatCode="[$-40C]dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="58">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -148,6 +178,261 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
   </fonts>
   <fills count="5">
@@ -177,7 +462,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
@@ -186,83 +471,130 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="61">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="53" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="54" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="15"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="16"/>
+    <cellStyle builtinId="4" name="Currency" xfId="17"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="18"/>
+    <cellStyle builtinId="5" name="Percent" xfId="19"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -332,21 +664,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F9" activeCellId="0" pane="topLeft" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.28"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="17.14" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="20.57" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="7" customWidth="true" hidden="false" style="0" width="15.57" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="16.28" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -372,7 +704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -389,59 +721,61 @@
         <v>11</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>43846</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+        <v>54804</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9" t="n">
-        <v>31</v>
-      </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
+      <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -458,214 +792,219 @@
         <v>11</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
+      <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
+      <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
+      <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
+      <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="30">
       <c r="A30" s="4"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="31">
       <c r="A31" s="4"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="32">
       <c r="A32" s="4"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="33">
       <c r="A33" s="4"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="34">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="35">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="36">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="37">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="38">
       <c r="A38" s="4"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="39">
       <c r="A39" s="4"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="40">
       <c r="A40" s="4"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="41">
       <c r="A41" s="4"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="42">
       <c r="A42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="43">
       <c r="A43" s="4"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="44">
       <c r="A44" s="4"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="45">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="46">
       <c r="A46" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/src/test/resources/data/out/bonjour.xlsx
+++ b/src/test/resources/data/out/bonjour.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="34">
   <si>
     <t xml:space="preserve">auteur</t>
   </si>
@@ -100,31 +100,31 @@
     <t>Success</t>
   </si>
   <si>
+    <t>Fail: /!\ The provided data Â« la ville Â» cannot be empty. /!\</t>
+  </si>
+  <si>
+    <t>Fail: /!\ The provided data Â« élément Â» cannot be empty. /!\, /!\ The provided data Â« élément2 Â» cannot be empty. /!\.</t>
+  </si>
+  <si>
     <t>This is a demo for NORAUI (Non-Regression Automation for User Interfaces).</t>
   </si>
   <si>
+    <t>Fail: The city is Paris!!</t>
+  </si>
+  <si>
+    <t>Fail: /!\ Typing Â« Input Select field Â» in bakery. /!\</t>
+  </si>
+  <si>
+    <t>Fail: /!\ The value of the field Â« -input_current_date Â» is not the expected one (0) in bakery. /!\</t>
+  </si>
+  <si>
+    <t>Fail: /!\ No value for Â« Input Text field Â» in bakery. /!\</t>
+  </si>
+  <si>
     <t>{"total_count":229,"incomplete_results":false,"items":[{"login":"ndeloof","id":132757,"node_id":"MDQ6VXNlcjEzMjc1Nw==","avatar_url":"https://avatars0.githubusercontent.com/u/132757?v=4","gravatar_id":"","url":"https://api.github.com/users/ndeloof","html_url":"https://github.com/ndeloof","followers_url":"https://api.github.com/users/ndeloof/followers","following_url":"https://api.github.com/users/ndeloof/following{/other_user}","gists_url":"https://api.github.com/users/ndeloof/gists{/gist_id}","starred_url":"https://api.github.com/users/ndeloof/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/ndeloof/subscriptions","organizations_url":"https://api.github.com/users/ndeloof/orgs","repos_url":"https://api.github.com/users/ndeloof/repos","events_url":"https://api.github.com/users/ndeloof/events{/privacy}","received_events_url":"https://api.github.com/users/ndeloof/received_events","type":"User","site_admin":false,"score":1.0},{"login":"aurelhubert","id":4895410,"node_id":"MDQ6VXNlcjQ4OTU0MTA=","avatar_url":"https://avatars0.githubusercontent.com/u/4895410?v=4","gravatar_id":"","url":"https://api.github.com/users/aurelhubert","html_url":"https://github.com/aurelhubert","followers_url":"https://api.github.com/users/aurelhubert/followers","following_url":"https://api.github.com/users/aurelhubert/following{/other_user}","gists_url":"https://api.github.com/users/aurelhubert/gists{/gist_id}","starred_url":"https://api.github.com/users/aurelhubert/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/aurelhubert/subscriptions","organizations_url":"https://api.github.com/users/aurelhubert/orgs","repos_url":"https://api.github.com/users/aurelhubert/repos","events_url":"https://api.github.com/users/aurelhubert/events{/privacy}","received_events_url":"https://api.github.com/users/aurelhubert/received_events","type":"User","site_admin":false,"score":1.0},{"login":"pcmanus","id":479957,"node_id":"MDQ6VXNlcjQ3OTk1Nw==","avatar_url":"https://avatars3.githubusercontent.com/u/479957?v=4","gravatar_id":"","url":"https://api.github.com/users/pcmanus","html_url":"https://github.com/pcmanus","followers_url":"https://api.github.com/users/pcmanus/followers","following_url":"https://api.github.com/users/pcmanus/following{/other_user}","gists_url":"https://api.github.com/users/pcmanus/gists{/gist_id}","starred_url":"https://api.github.com/users/pcmanus/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/pcmanus/subscriptions","organizations_url":"https://api.github.com/users/pcmanus/orgs","repos_url":"https://api.github.com/users/pcmanus/repos","events_url":"https://api.github.com/users/pcmanus/events{/privacy}","received_events_url":"https://api.github.com/users/pcmanus/received_events","type":"User","site_admin":false,"score":1.0},{"login":"deruelle","id":54279,"node_id":"MDQ6VXNlcjU0Mjc5","avatar_url":"https://avatars3.githubusercontent.com/u/54279?v=4","gravatar_id":"","url":"https://api.github.com/users/deruelle","html_url":"https://github.com/deruelle","followers_url":"https://api.github.com/users/deruelle/followers","following_url":"https://api.github.com/users/deruelle/following{/other_user}","gists_url":"https://api.github.com/users/deruelle/gists{/gist_id}","starred_url":"https://api.github.com/users/deruelle/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/deruelle/subscriptions","organizations_url":"https://api.github.com/users/deruelle/orgs","repos_url":"https://api.github.com/users/deruelle/repos","events_url":"https://api.github.com/users/deruelle/events{/privacy}","received_events_url":"https://api.github.com/users/deruelle/received_events","type":"User","site_admin":false,"score":1.0},{"login":"barais","id":598311,"node_id":"MDQ6VXNlcjU5ODMxMQ==","avatar_url":"https://avatars1.githubusercontent.com/u/598311?v=4","gravatar_id":"","url":"https://api.github.com/users/barais","html_url":"https://github.com/barais","followers_url":"https://api.github.com/users/barais/followers","following_url":"https://api.github.com/users/barais/following{/other_user}","gists_url":"https://api.github.com/users/barais/gists{/gist_id}","starred_url":"https://api.github.com/users/barais/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/barais/subscriptions","organizations_url":"https://api.github.com/users/barais/orgs","repos_url":"https://api.github.com/users/barais/repos","events_url":"https://api.github.com/users/barais/events{/privacy}","received_events_url":"https://api.github.com/users/barais/received_events","type":"User","site_admin":false,"score":1.0},{"login":"ybonnel","id":428232,"node_id":"MDQ6VXNlcjQyODIzMg==","avatar_url":"https://avatars1.githubusercontent.com/u/428232?v=4","gravatar_id":"","url":"https://api.github.com/users/ybonnel","html_url":"https://github.com/ybonnel","followers_url":"https://api.github.com/users/ybonnel/followers","following_url":"https://api.github.com/users/ybonnel/following{/other_user}","gists_url":"https://api.github.com/users/ybonnel/gists{/gist_id}","starred_url":"https://api.github.com/users/ybonnel/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/ybonnel/subscriptions","organizations_url":"https://api.github.com/users/ybonnel/orgs","repos_url":"https://api.github.com/users/ybonnel/repos","events_url":"https://api.github.com/users/ybonnel/events{/privacy}","received_events_url":"https://api.github.com/users/ybonnel/received_events","type":"User","site_admin":false,"score":1.0},{"login":"ganfra","id":8754928,"node_id":"MDQ6VXNlcjg3NTQ5Mjg=","avatar_url":"https://avatars3.githubusercontent.com/u/8754928?v=4","gravatar_id":"","url":"https://api.github.com/users/ganfra","html_url":"https://github.com/ganfra","followers_url":"https://api.github.com/users/ganfra/followers","following_url":"https://api.github.com/users/ganfra/following{/other_user}","gists_url":"https://api.github.com/users/ganfra/gists{/gist_id}","starred_url":"https://api.github.com/users/ganfra/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/ganfra/subscriptions","organizations_url":"https://api.github.com/users/ganfra/orgs","repos_url":"https://api.github.com/users/ganfra/repos","events_url":"https://api.github.com/users/ganfra/events{/privacy}","received_events_url":"https://api.github.com/users/ganfra/received_events","type":"User","site_admin":false,"score":1.0},{"login":"Jean-Emile","id":1098811,"node_id":"MDQ6VXNlcjEwOTg4MTE=","avatar_url":"https://avatars3.githubusercontent.com/u/1098811?v=4","gravatar_id":"","url":"https://api.github.com/users/Jean-Emile","html_url":"https://github.com/Jean-Emile","followers_url":"https://api.github.com/users/Jean-Emile/followers","following_url":"https://api.github.com/users/Jean-Emile/following{/other_user}","gists_url":"https://api.github.com/users/Jean-Emile/gists{/gist_id}","starred_url":"https://api.github.com/users/Jean-Emile/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/Jean-Emile/subscriptions","organizations_url":"https://api.github.com/users/Jean-Emile/orgs","repos_url":"https://api.github.com/users/Jean-Emile/repos","events_url":"https://api.github.com/users/Jean-Emile/events{/privacy}","received_events_url":"https://api.github.com/users/Jean-Emile/received_events","type":"User","site_admin":false,"score":1.0},{"login":"arnobl","id":1052622,"node_id":"MDQ6VXNlcjEwNTI2MjI=","avatar_url":"https://avatars0.githubusercontent.com/u/1052622?v=4","gravatar_id":"","url":"https://api.github.com/users/arnobl","html_url":"https://github.com/arnobl","followers_url":"https://api.github.com/users/arnobl/followers","following_url":"https://api.github.com/users/arnobl/following{/other_user}","gists_url":"https://api.github.com/users/arnobl/gists{/gist_id}","starred_url":"https://api.github.com/users/arnobl/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/arnobl/subscriptions","organizations_url":"https://api.github.com/users/arnobl/orgs","repos_url":"https://api.github.com/users/arnobl/repos","events_url":"https://api.github.com/users/arnobl/events{/privacy}","received_events_url":"https://api.github.com/users/arnobl/received_events","type":"User","site_admin":false,"score":1.0},{"login":"acherm","id":530573,"node_id":"MDQ6VXNlcjUzMDU3Mw==","avatar_url":"https://avatars1.githubusercontent.com/u/530573?v=4","gravatar_id":"","url":"https://api.github.com/users/acherm","html_url":"https://github.com/acherm","followers_url":"https://api.github.com/users/acherm/followers","following_url":"https://api.github.com/users/acherm/following{/other_user}","gists_url":"https://api.github.com/users/acherm/gists{/gist_id}","starred_url":"https://api.github.com/users/acherm/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/acherm/subscriptions","organizations_url":"https://api.github.com/users/acherm/orgs","repos_url":"https://api.github.com/users/acherm/repos","events_url":"https://api.github.com/users/acherm/events{/privacy}","received_events_url":"https://api.github.com/users/acherm/received_events","type":"User","site_admin":false,"score":1.0}]}</t>
   </si>
   <si>
-    <t>Fail: The city is Paris!!</t>
-  </si>
-  <si>
-    <t>Fail: /!\ Typing Â« Input Select field Â» in bakery. /!\</t>
-  </si>
-  <si>
     <t>Fail: /!\ Click on Â« no exist element Â» in bakery. /!\</t>
-  </si>
-  <si>
-    <t>Fail: /!\ The provided data Â« la ville Â» cannot be empty. /!\</t>
-  </si>
-  <si>
-    <t>Fail: /!\ The provided data Â« élément Â» cannot be empty. /!\, /!\ The provided data Â« élément2 Â» cannot be empty. /!\.</t>
-  </si>
-  <si>
-    <t>Fail: /!\ Unable to authenticate with provided credentials. /!\</t>
-  </si>
-  <si>
-    <t>Fail: /!\ No value for Â« Input Text field Â» in bakery. /!\</t>
   </si>
 </sst>
 </file>
@@ -136,7 +136,7 @@
     <numFmt numFmtId="165" formatCode="[$-40C]dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="58">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -178,216 +178,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -495,7 +285,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="19">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -542,51 +332,9 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="53" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="54" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -724,9 +472,9 @@
         <v>54804</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>24</v>
       </c>
     </row>
@@ -748,8 +496,8 @@
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="59" t="s">
-        <v>27</v>
+      <c r="H3" s="17" t="s">
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
@@ -770,8 +518,8 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="59" t="s">
-        <v>28</v>
+      <c r="H4" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="I4" s="9"/>
     </row>
@@ -793,9 +541,9 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="16" t="s">
         <v>24</v>
       </c>
     </row>
@@ -817,8 +565,8 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="59" t="s">
-        <v>29</v>
+      <c r="H6" s="17" t="s">
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
@@ -837,8 +585,8 @@
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="59" t="s">
-        <v>30</v>
+      <c r="H7" s="17" t="s">
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
@@ -855,8 +603,8 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="59" t="s">
-        <v>31</v>
+      <c r="H8" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
@@ -875,10 +623,10 @@
       </c>
       <c r="F9" s="7"/>
       <c r="G9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="59" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">

--- a/src/test/resources/data/out/bonjour.xlsx
+++ b/src/test/resources/data/out/bonjour.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\POC\NoraUi\src\test\resources\data\out\"/>
     </mc:Choice>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
   <si>
     <t>auteur</t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>Jenkins T8</t>
+  </si>
+  <si>
+    <t>SuccÃ¨s</t>
+  </si>
+  <si>
+    <t>Ãchec : /!\ Ouverture de la page the page BAKERY. Cette erreur peut provenir d'un proxy qui ne rÃ©pond pas ou de sa mauvaise configuration /!\</t>
+  </si>
+  <si>
+    <t>Ãchec : /!\ La donnÃ©e Â« la ville Â» fournie ne peut pas Ãªtre vide. /!\</t>
+  </si>
+  <si>
+    <t>Ãchec : /!\ La donnÃ©e Â« élément Â» fournie ne peut pas Ãªtre vide. /!\, /!\ La donnÃ©e Â« élément2 Â» fournie ne peut pas Ãªtre vide. /!\.</t>
   </si>
 </sst>
 </file>
@@ -108,7 +120,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-40C]dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -135,6 +147,36 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
   </fonts>
   <fills count="5">
@@ -175,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -187,6 +229,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,10 +589,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="4" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="4" max="7" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -593,7 +641,9 @@
         <v>54804</v>
       </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
+      <c r="H2" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -614,8 +664,8 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="9">
-        <v>31</v>
+      <c r="H3" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="I3" s="7"/>
     </row>
@@ -637,7 +687,7 @@
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="9">
+      <c r="H4" s="15" t="s">
         <v>25</v>
       </c>
       <c r="I4" s="10"/>
@@ -660,7 +710,9 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -681,8 +733,8 @@
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="9">
-        <v>42</v>
+      <c r="H6" s="15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -701,8 +753,8 @@
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9">
-        <v>2</v>
+      <c r="H7" s="15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -719,8 +771,8 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="9">
-        <v>4</v>
+      <c r="H8" s="15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -739,8 +791,8 @@
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="9">
-        <v>58</v>
+      <c r="H9" s="15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
